--- a/assets/files/CV2.xlsx
+++ b/assets/files/CV2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9816" windowHeight="5520"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -311,12 +311,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -624,1999 +625,1999 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.5703125" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="4"/>
-    <col min="14" max="14" width="8.85546875" style="4"/>
-    <col min="20" max="20" width="8.85546875" style="4"/>
+    <col min="2" max="2" width="19.5546875" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="3"/>
+    <col min="14" max="14" width="8.88671875" style="3"/>
+    <col min="20" max="20" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>1801</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="4">
         <v>26.13065326633166</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="4">
         <v>49.246231155778894</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="4">
         <v>8.5427135678391952</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="4">
         <v>10.050251256281408</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="4">
         <v>6.0301507537688446</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="5">
         <v>199</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="4">
         <v>29.100529100529101</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="4">
         <v>41.269841269841272</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="4">
         <v>11.111111111111111</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="4">
         <v>15.873015873015873</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2" s="4">
         <v>2.6455026455026456</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="5">
         <v>189</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2" s="4">
         <v>27.577319587628867</v>
       </c>
-      <c r="P2" s="1">
+      <c r="P2" s="4">
         <v>45.360824742268044</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="Q2" s="4">
         <v>9.7938144329896915</v>
       </c>
-      <c r="R2" s="1">
+      <c r="R2" s="4">
         <v>12.88659793814433</v>
       </c>
-      <c r="S2" s="1">
+      <c r="S2" s="4">
         <v>4.3814432989690726</v>
       </c>
-      <c r="T2" s="4">
+      <c r="T2" s="5">
         <v>388</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>1503</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="4">
         <v>40.160642570281126</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="4">
         <v>27.710843373493976</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="4">
         <v>7.6305220883534135</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="4">
         <v>20.883534136546185</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="4">
         <v>3.6144578313253013</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="5">
         <v>249</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="4">
         <v>31.147540983606557</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="4">
         <v>47.540983606557376</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="4">
         <v>14.754098360655737</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="4">
         <v>6.557377049180328</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="4">
         <v>0</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="5">
         <v>122</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3" s="4">
         <v>37.19676549865229</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P3" s="4">
         <v>34.23180592991914</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="Q3" s="4">
         <v>9.9730458221024261</v>
       </c>
-      <c r="R3" s="1">
+      <c r="R3" s="4">
         <v>16.172506738544474</v>
       </c>
-      <c r="S3" s="1">
+      <c r="S3" s="4">
         <v>2.4258760107816713</v>
       </c>
-      <c r="T3" s="4">
+      <c r="T3" s="5">
         <v>371</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="4">
         <v>18.120805369127517</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="4">
         <v>31.767337807606264</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="4">
         <v>9.3959731543624159</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="4">
         <v>34.899328859060404</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="4">
         <v>5.8165548098434003</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="5">
         <v>447</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="4">
         <v>30.76923076923077</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="4">
         <v>28.340080971659919</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="4">
         <v>9.7165991902834001</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="4">
         <v>27.935222672064778</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4" s="4">
         <v>3.2388663967611335</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="5">
         <v>247</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4" s="4">
         <v>22.622478386167145</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P4" s="4">
         <v>30.547550432276658</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="Q4" s="4">
         <v>9.5100864553314128</v>
       </c>
-      <c r="R4" s="1">
+      <c r="R4" s="4">
         <v>32.420749279538903</v>
       </c>
-      <c r="S4" s="1">
+      <c r="S4" s="4">
         <v>4.8991354466858787</v>
       </c>
-      <c r="T4" s="4">
+      <c r="T4" s="5">
         <v>694</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="4">
         <v>22.784810126582279</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="4">
         <v>56.962025316455694</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="4">
         <v>15.189873417721518</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="4">
         <v>3.7974683544303796</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="4">
         <v>1.2658227848101267</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="5">
         <v>79</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="4">
         <v>26.353790613718413</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="4">
         <v>47.653429602888089</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="4">
         <v>16.245487364620939</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="4">
         <v>9.025270758122744</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="4">
         <v>0.72202166064981954</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="5">
         <v>277</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="4">
         <v>25.561797752808989</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5" s="4">
         <v>49.719101123595507</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5" s="4">
         <v>16.011235955056179</v>
       </c>
-      <c r="R5" s="1">
+      <c r="R5" s="4">
         <v>7.8651685393258424</v>
       </c>
-      <c r="S5" s="1">
+      <c r="S5" s="4">
         <v>0.84269662921348309</v>
       </c>
-      <c r="T5" s="4">
+      <c r="T5" s="5">
         <v>356</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="4">
         <v>21.925133689839573</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="4">
         <v>40.641711229946523</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="4">
         <v>17.112299465240643</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="4">
         <v>14.438502673796792</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="4">
         <v>5.882352941176471</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="5">
         <v>187</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="4">
         <v>22.641509433962263</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="4">
         <v>41.509433962264154</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="4">
         <v>16.037735849056602</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="4">
         <v>12.264150943396226</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="4">
         <v>7.5471698113207548</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="5">
         <v>106</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="4">
         <v>22.184300341296929</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6" s="4">
         <v>40.955631399317404</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="Q6" s="4">
         <v>16.723549488054609</v>
       </c>
-      <c r="R6" s="1">
+      <c r="R6" s="4">
         <v>13.651877133105803</v>
       </c>
-      <c r="S6" s="1">
+      <c r="S6" s="4">
         <v>6.4846416382252556</v>
       </c>
-      <c r="T6" s="4">
+      <c r="T6" s="5">
         <v>293</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="4">
         <v>33.333333333333336</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="4">
         <v>23.589743589743591</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="4">
         <v>12.820512820512821</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="4">
         <v>24.102564102564102</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="4">
         <v>6.1538461538461542</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="5">
         <v>195</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="4">
         <v>27.699530516431924</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="4">
         <v>23.943661971830984</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="4">
         <v>6.572769953051643</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="4">
         <v>32.863849765258216</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="4">
         <v>8.92018779342723</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="5">
         <v>213</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7" s="4">
         <v>30.392156862745097</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P7" s="4">
         <v>23.774509803921568</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="Q7" s="4">
         <v>9.5588235294117645</v>
       </c>
-      <c r="R7" s="1">
+      <c r="R7" s="4">
         <v>28.676470588235293</v>
       </c>
-      <c r="S7" s="1">
+      <c r="S7" s="4">
         <v>7.5980392156862742</v>
       </c>
-      <c r="T7" s="4">
+      <c r="T7" s="5">
         <v>408</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="4">
         <v>23.255813953488371</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="4">
         <v>30.232558139534884</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="4">
         <v>4.6511627906976747</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="4">
         <v>39.534883720930232</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="4">
         <v>2.3255813953488373</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="5">
         <v>43</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="4">
         <v>25.076452599388379</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="4">
         <v>28.134556574923547</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="4">
         <v>14.37308868501529</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="4">
         <v>29.051987767584098</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="4">
         <v>3.3639143730886851</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="5">
         <v>327</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8" s="4">
         <v>24.864864864864863</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P8" s="4">
         <v>28.378378378378379</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="Q8" s="4">
         <v>13.243243243243244</v>
       </c>
-      <c r="R8" s="1">
+      <c r="R8" s="4">
         <v>30.27027027027027</v>
       </c>
-      <c r="S8" s="1">
+      <c r="S8" s="4">
         <v>3.2432432432432434</v>
       </c>
-      <c r="T8" s="4">
+      <c r="T8" s="5">
         <v>370</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="4">
         <v>25.609756097560975</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="4">
         <v>26.422764227642276</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="4">
         <v>4.4715447154471546</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="4">
         <v>32.520325203252035</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="4">
         <v>10.975609756097562</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="5">
         <v>246</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="4">
         <v>24.46043165467626</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="4">
         <v>35.251798561151077</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="4">
         <v>6.4748201438848918</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="4">
         <v>30.215827338129497</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9" s="4">
         <v>3.5971223021582732</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="5">
         <v>139</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9" s="4">
         <v>25.194805194805195</v>
       </c>
-      <c r="P9" s="1">
+      <c r="P9" s="4">
         <v>29.61038961038961</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="Q9" s="4">
         <v>5.1948051948051948</v>
       </c>
-      <c r="R9" s="1">
+      <c r="R9" s="4">
         <v>31.688311688311689</v>
       </c>
-      <c r="S9" s="1">
+      <c r="S9" s="4">
         <v>8.3116883116883109</v>
       </c>
-      <c r="T9" s="4">
+      <c r="T9" s="5">
         <v>385</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="4">
         <v>34.482758620689658</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="4">
         <v>49.425287356321839</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="4">
         <v>4.5977011494252871</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="4">
         <v>11.494252873563218</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="4">
         <v>0</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="5">
         <v>87</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="4">
         <v>40.569395017793596</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="4">
         <v>36.29893238434164</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="4">
         <v>7.8291814946619214</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="4">
         <v>14.234875444839858</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10" s="4">
         <v>1.0676156583629892</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="5">
         <v>281</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10" s="4">
         <v>39.130434782608695</v>
       </c>
-      <c r="P10" s="1">
+      <c r="P10" s="4">
         <v>39.402173913043477</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="Q10" s="4">
         <v>7.0652173913043477</v>
       </c>
-      <c r="R10" s="1">
+      <c r="R10" s="4">
         <v>13.586956521739131</v>
       </c>
-      <c r="S10" s="1">
+      <c r="S10" s="4">
         <v>0.81521739130434778</v>
       </c>
-      <c r="T10" s="4">
+      <c r="T10" s="5">
         <v>368</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="4">
         <v>11</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="4">
         <v>16</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="4">
         <v>7.5</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="4">
         <v>65.5</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="4">
         <v>0</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="5">
         <v>200</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="4">
         <v>15.555555555555555</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="4">
         <v>35.555555555555557</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="4">
         <v>41.111111111111114</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="4">
         <v>7.7777777777777777</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11" s="4">
         <v>0</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="5">
         <v>180</v>
       </c>
-      <c r="O11" s="1">
+      <c r="O11" s="4">
         <v>13.157894736842104</v>
       </c>
-      <c r="P11" s="1">
+      <c r="P11" s="4">
         <v>25.263157894736842</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="Q11" s="4">
         <v>23.421052631578949</v>
       </c>
-      <c r="R11" s="1">
+      <c r="R11" s="4">
         <v>38.157894736842103</v>
       </c>
-      <c r="S11" s="1">
+      <c r="S11" s="4">
         <v>0</v>
       </c>
-      <c r="T11" s="4">
+      <c r="T11" s="5">
         <v>380</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="4">
         <v>57.522123893805308</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="4">
         <v>4.4247787610619467</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="4">
         <v>0</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="4">
         <v>37.168141592920357</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="4">
         <v>0.88495575221238942</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="5">
         <v>226</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="4">
         <v>56.209150326797385</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="4">
         <v>33.986928104575163</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="4">
         <v>1.9607843137254901</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12" s="4">
         <v>7.1895424836601309</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M12" s="4">
         <v>0.65359477124183007</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="5">
         <v>153</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O12" s="4">
         <v>56.992084432717675</v>
       </c>
-      <c r="P12" s="1">
+      <c r="P12" s="4">
         <v>16.358839050131927</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="Q12" s="4">
         <v>0.79155672823218992</v>
       </c>
-      <c r="R12" s="1">
+      <c r="R12" s="4">
         <v>25.065963060686016</v>
       </c>
-      <c r="S12" s="1">
+      <c r="S12" s="4">
         <v>0.79155672823218992</v>
       </c>
-      <c r="T12" s="4">
+      <c r="T12" s="5">
         <v>379</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="4">
         <v>22.368421052631579</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="4">
         <v>24.561403508771932</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="4">
         <v>9.2105263157894743</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="4">
         <v>36.842105263157897</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="4">
         <v>7.0175438596491224</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="5">
         <v>228</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="4">
         <v>10.476190476190476</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="4">
         <v>23.80952380952381</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="4">
         <v>7.6190476190476186</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13" s="4">
         <v>51.428571428571431</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13" s="4">
         <v>6.666666666666667</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="5">
         <v>105</v>
       </c>
-      <c r="O13" s="1">
+      <c r="O13" s="4">
         <v>18.618618618618619</v>
       </c>
-      <c r="P13" s="1">
+      <c r="P13" s="4">
         <v>24.324324324324323</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="Q13" s="4">
         <v>8.7087087087087092</v>
       </c>
-      <c r="R13" s="1">
+      <c r="R13" s="4">
         <v>41.441441441441441</v>
       </c>
-      <c r="S13" s="1">
+      <c r="S13" s="4">
         <v>6.9069069069069071</v>
       </c>
-      <c r="T13" s="4">
+      <c r="T13" s="5">
         <v>333</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="4">
         <v>18.699186991869919</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="4">
         <v>25.203252032520325</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="4">
         <v>8.1300813008130088</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="4">
         <v>34.959349593495936</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="4">
         <v>13.008130081300813</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="5">
         <v>123</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="4">
         <v>22.709163346613547</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="4">
         <v>25.89641434262948</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="4">
         <v>5.5776892430278888</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14" s="4">
         <v>39.442231075697208</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14" s="4">
         <v>6.3745019920318722</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="5">
         <v>251</v>
       </c>
-      <c r="O14" s="1">
+      <c r="O14" s="4">
         <v>21.390374331550802</v>
       </c>
-      <c r="P14" s="1">
+      <c r="P14" s="4">
         <v>25.668449197860962</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="Q14" s="4">
         <v>6.4171122994652405</v>
       </c>
-      <c r="R14" s="1">
+      <c r="R14" s="4">
         <v>37.967914438502675</v>
       </c>
-      <c r="S14" s="1">
+      <c r="S14" s="4">
         <v>8.5561497326203213</v>
       </c>
-      <c r="T14" s="4">
+      <c r="T14" s="5">
         <v>374</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="4">
         <v>20.833333333333332</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="4">
         <v>29.166666666666668</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="4">
         <v>4.166666666666667</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="4">
         <v>0</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="4">
         <v>45.833333333333336</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="5">
         <v>48</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="4">
         <v>33.134328358208954</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="4">
         <v>51.343283582089555</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="4">
         <v>8.656716417910447</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15" s="4">
         <v>1.1940298507462686</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M15" s="4">
         <v>5.6716417910447765</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="5">
         <v>335</v>
       </c>
-      <c r="O15" s="1">
+      <c r="O15" s="4">
         <v>31.592689295039165</v>
       </c>
-      <c r="P15" s="1">
+      <c r="P15" s="4">
         <v>48.563968668407313</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="Q15" s="4">
         <v>8.0939947780678843</v>
       </c>
-      <c r="R15" s="1">
+      <c r="R15" s="4">
         <v>1.0443864229765014</v>
       </c>
-      <c r="S15" s="1">
+      <c r="S15" s="4">
         <v>10.704960835509139</v>
       </c>
-      <c r="T15" s="4">
+      <c r="T15" s="5">
         <v>383</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="4">
         <v>22</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="4">
         <v>33.333333333333336</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="4">
         <v>30.666666666666668</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="4">
         <v>12.666666666666666</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="4">
         <v>1.3333333333333333</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="5">
         <v>150</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="4">
         <v>7.2033898305084749</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="4">
         <v>54.237288135593218</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="4">
         <v>38.559322033898304</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L16" s="4">
         <v>0</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M16" s="4">
         <v>0</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N16" s="5">
         <v>236</v>
       </c>
-      <c r="O16" s="1">
+      <c r="O16" s="4">
         <v>12.953367875647668</v>
       </c>
-      <c r="P16" s="1">
+      <c r="P16" s="4">
         <v>46.1139896373057</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="Q16" s="4">
         <v>35.49222797927461</v>
       </c>
-      <c r="R16" s="1">
+      <c r="R16" s="4">
         <v>4.9222797927461137</v>
       </c>
-      <c r="S16" s="1">
+      <c r="S16" s="4">
         <v>0.51813471502590669</v>
       </c>
-      <c r="T16" s="4">
+      <c r="T16" s="5">
         <v>386</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B17" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="4">
         <v>0</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="4">
         <v>0</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="4">
         <v>0</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="4">
         <v>0</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="4">
         <v>0</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="5">
         <v>0</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="4">
         <v>20.580474934036939</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="4">
         <v>40.369393139841691</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="4">
         <v>20.052770448548813</v>
       </c>
-      <c r="L17" s="1">
+      <c r="L17" s="4">
         <v>11.87335092348285</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M17" s="4">
         <v>7.1240105540897094</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17" s="5">
         <v>379</v>
       </c>
-      <c r="O17" s="1">
+      <c r="O17" s="4">
         <v>20.580474934036939</v>
       </c>
-      <c r="P17" s="1">
+      <c r="P17" s="4">
         <v>40.369393139841691</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="Q17" s="4">
         <v>20.052770448548813</v>
       </c>
-      <c r="R17" s="1">
+      <c r="R17" s="4">
         <v>11.87335092348285</v>
       </c>
-      <c r="S17" s="1">
+      <c r="S17" s="4">
         <v>7.1240105540897094</v>
       </c>
-      <c r="T17" s="4">
+      <c r="T17" s="5">
         <v>379</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B18" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="4">
         <v>30.76923076923077</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="4">
         <v>38.46153846153846</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="4">
         <v>5.1282051282051286</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="4">
         <v>7.6923076923076925</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="4">
         <v>17.948717948717949</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="5">
         <v>39</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="4">
         <v>39.705882352941174</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="4">
         <v>35.294117647058826</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="4">
         <v>0.88235294117647056</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L18" s="4">
         <v>22.647058823529413</v>
       </c>
-      <c r="M18" s="1">
+      <c r="M18" s="4">
         <v>1.4705882352941178</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N18" s="5">
         <v>340</v>
       </c>
-      <c r="O18" s="1">
+      <c r="O18" s="4">
         <v>38.786279683377309</v>
       </c>
-      <c r="P18" s="1">
+      <c r="P18" s="4">
         <v>35.620052770448552</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="Q18" s="4">
         <v>1.3192612137203166</v>
       </c>
-      <c r="R18" s="1">
+      <c r="R18" s="4">
         <v>21.108179419525065</v>
       </c>
-      <c r="S18" s="1">
+      <c r="S18" s="4">
         <v>3.1662269129287597</v>
       </c>
-      <c r="T18" s="4">
+      <c r="T18" s="5">
         <v>379</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B19" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="4">
         <v>74.137931034482762</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="4">
         <v>3.4482758620689653</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="4">
         <v>0.57471264367816088</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="4">
         <v>17.816091954022987</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="4">
         <v>4.0229885057471266</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="5">
         <v>174</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="4">
         <v>51.366120218579233</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19" s="4">
         <v>8.7431693989071047</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19" s="4">
         <v>3.278688524590164</v>
       </c>
-      <c r="L19" s="1">
+      <c r="L19" s="4">
         <v>36.612021857923494</v>
       </c>
-      <c r="M19" s="1">
+      <c r="M19" s="4">
         <v>0</v>
       </c>
-      <c r="N19" s="4">
+      <c r="N19" s="5">
         <v>183</v>
       </c>
-      <c r="O19" s="1">
+      <c r="O19" s="4">
         <v>62.464985994397757</v>
       </c>
-      <c r="P19" s="1">
+      <c r="P19" s="4">
         <v>6.1624649859943981</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="Q19" s="4">
         <v>1.9607843137254901</v>
       </c>
-      <c r="R19" s="1">
+      <c r="R19" s="4">
         <v>27.450980392156861</v>
       </c>
-      <c r="S19" s="1">
+      <c r="S19" s="4">
         <v>1.9607843137254901</v>
       </c>
-      <c r="T19" s="4">
+      <c r="T19" s="5">
         <v>357</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B20" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="4">
         <v>21.875</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="4">
         <v>31.25</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="4">
         <v>15.625</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="4">
         <v>25</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="4">
         <v>6.25</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="5">
         <v>32</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="4">
         <v>44.26229508196721</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="4">
         <v>25.136612021857925</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="4">
         <v>6.557377049180328</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L20" s="4">
         <v>20.218579234972676</v>
       </c>
-      <c r="M20" s="1">
+      <c r="M20" s="4">
         <v>3.8251366120218577</v>
       </c>
-      <c r="N20" s="4">
+      <c r="N20" s="5">
         <v>366</v>
       </c>
-      <c r="O20" s="1">
+      <c r="O20" s="4">
         <v>42.462311557788944</v>
       </c>
-      <c r="P20" s="1">
+      <c r="P20" s="4">
         <v>25.628140703517587</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="Q20" s="4">
         <v>7.2864321608040203</v>
       </c>
-      <c r="R20" s="1">
+      <c r="R20" s="4">
         <v>20.603015075376884</v>
       </c>
-      <c r="S20" s="1">
+      <c r="S20" s="4">
         <v>4.0201005025125625</v>
       </c>
-      <c r="T20" s="4">
+      <c r="T20" s="5">
         <v>398</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B21" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="4">
         <v>29.064039408866996</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="4">
         <v>39.901477832512313</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="4">
         <v>10.344827586206897</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="4">
         <v>16.748768472906406</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="4">
         <v>3.9408866995073892</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="5">
         <v>203</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="4">
         <v>25</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="4">
         <v>41.111111111111114</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21" s="4">
         <v>10</v>
       </c>
-      <c r="L21" s="1">
+      <c r="L21" s="4">
         <v>20</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M21" s="4">
         <v>3.8888888888888888</v>
       </c>
-      <c r="N21" s="4">
+      <c r="N21" s="5">
         <v>180</v>
       </c>
-      <c r="O21" s="1">
+      <c r="O21" s="4">
         <v>27.154046997389035</v>
       </c>
-      <c r="P21" s="1">
+      <c r="P21" s="4">
         <v>40.469973890339425</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="Q21" s="4">
         <v>10.182767624020888</v>
       </c>
-      <c r="R21" s="1">
+      <c r="R21" s="4">
         <v>18.276762402088774</v>
       </c>
-      <c r="S21" s="1">
+      <c r="S21" s="4">
         <v>3.9164490861618799</v>
       </c>
-      <c r="T21" s="4">
+      <c r="T21" s="5">
         <v>383</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B22" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="4">
         <v>18.497109826589597</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="4">
         <v>35.838150289017342</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="4">
         <v>13.294797687861271</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="4">
         <v>28.901734104046241</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="4">
         <v>3.4682080924855492</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="5">
         <v>173</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22" s="4">
         <v>28.292682926829269</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22" s="4">
         <v>29.26829268292683</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K22" s="4">
         <v>10.731707317073171</v>
       </c>
-      <c r="L22" s="1">
+      <c r="L22" s="4">
         <v>28.780487804878049</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M22" s="4">
         <v>2.9268292682926829</v>
       </c>
-      <c r="N22" s="4">
+      <c r="N22" s="5">
         <v>205</v>
       </c>
-      <c r="O22" s="1">
+      <c r="O22" s="4">
         <v>23.80952380952381</v>
       </c>
-      <c r="P22" s="1">
+      <c r="P22" s="4">
         <v>32.275132275132272</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="Q22" s="4">
         <v>11.904761904761905</v>
       </c>
-      <c r="R22" s="1">
+      <c r="R22" s="4">
         <v>28.835978835978835</v>
       </c>
-      <c r="S22" s="1">
+      <c r="S22" s="4">
         <v>3.1746031746031744</v>
       </c>
-      <c r="T22" s="4">
+      <c r="T22" s="5">
         <v>378</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B23" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="4">
         <v>26.063829787234042</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="4">
         <v>21.276595744680851</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="4">
         <v>9.0425531914893611</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="4">
         <v>37.234042553191486</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="4">
         <v>6.3829787234042552</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="5">
         <v>188</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23" s="4">
         <v>24.102564102564102</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23" s="4">
         <v>23.589743589743591</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K23" s="4">
         <v>9.2307692307692299</v>
       </c>
-      <c r="L23" s="1">
+      <c r="L23" s="4">
         <v>36.92307692307692</v>
       </c>
-      <c r="M23" s="1">
+      <c r="M23" s="4">
         <v>6.1538461538461542</v>
       </c>
-      <c r="N23" s="4">
+      <c r="N23" s="5">
         <v>195</v>
       </c>
-      <c r="O23" s="1">
+      <c r="O23" s="4">
         <v>25.065274151436032</v>
       </c>
-      <c r="P23" s="1">
+      <c r="P23" s="4">
         <v>22.454308093994779</v>
       </c>
-      <c r="Q23" s="1">
+      <c r="Q23" s="4">
         <v>9.1383812010443872</v>
       </c>
-      <c r="R23" s="1">
+      <c r="R23" s="4">
         <v>37.075718015665799</v>
       </c>
-      <c r="S23" s="1">
+      <c r="S23" s="4">
         <v>6.2663185378590081</v>
       </c>
-      <c r="T23" s="4">
+      <c r="T23" s="5">
         <v>383</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B24" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="4">
         <v>5.6603773584905657</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="4">
         <v>0.62893081761006286</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="4">
         <v>0.31446540880503143</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="4">
         <v>90.566037735849051</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="4">
         <v>2.8301886792452828</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="5">
         <v>318</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24" s="4">
         <v>38.70967741935484</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24" s="4">
         <v>16.129032258064516</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K24" s="4">
         <v>0</v>
       </c>
-      <c r="L24" s="1">
+      <c r="L24" s="4">
         <v>43.548387096774192</v>
       </c>
-      <c r="M24" s="1">
+      <c r="M24" s="4">
         <v>1.6129032258064515</v>
       </c>
-      <c r="N24" s="4">
+      <c r="N24" s="5">
         <v>62</v>
       </c>
-      <c r="O24" s="1">
+      <c r="O24" s="4">
         <v>11.052631578947368</v>
       </c>
-      <c r="P24" s="1">
+      <c r="P24" s="4">
         <v>3.1578947368421053</v>
       </c>
-      <c r="Q24" s="1">
+      <c r="Q24" s="4">
         <v>0.26315789473684209</v>
       </c>
-      <c r="R24" s="1">
+      <c r="R24" s="4">
         <v>82.89473684210526</v>
       </c>
-      <c r="S24" s="1">
+      <c r="S24" s="4">
         <v>2.6315789473684212</v>
       </c>
-      <c r="T24" s="4">
+      <c r="T24" s="5">
         <v>380</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B25" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="4">
         <v>24.064171122994651</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="4">
         <v>29.946524064171122</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="4">
         <v>6.4171122994652405</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="4">
         <v>31.016042780748663</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="4">
         <v>8.5561497326203213</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="5">
         <v>187</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25" s="4">
         <v>26.041666666666668</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25" s="4">
         <v>36.979166666666664</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K25" s="4">
         <v>14.583333333333334</v>
       </c>
-      <c r="L25" s="1">
+      <c r="L25" s="4">
         <v>20.3125</v>
       </c>
-      <c r="M25" s="1">
+      <c r="M25" s="4">
         <v>2.0833333333333335</v>
       </c>
-      <c r="N25" s="4">
+      <c r="N25" s="5">
         <v>192</v>
       </c>
-      <c r="O25" s="1">
+      <c r="O25" s="4">
         <v>25.065963060686016</v>
       </c>
-      <c r="P25" s="1">
+      <c r="P25" s="4">
         <v>33.509234828496041</v>
       </c>
-      <c r="Q25" s="1">
+      <c r="Q25" s="4">
         <v>10.554089709762533</v>
       </c>
-      <c r="R25" s="1">
+      <c r="R25" s="4">
         <v>25.593667546174142</v>
       </c>
-      <c r="S25" s="1">
+      <c r="S25" s="4">
         <v>5.2770448548812663</v>
       </c>
-      <c r="T25" s="4">
+      <c r="T25" s="5">
         <v>379</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B26" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="4">
         <v>20.486111111111111</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="4">
         <v>59.895833333333336</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="4">
         <v>10.069444444444445</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="4">
         <v>5.3819444444444446</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="4">
         <v>4.166666666666667</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="5">
         <v>576</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26" s="4">
         <v>25.794530672579452</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J26" s="4">
         <v>36.585365853658537</v>
       </c>
-      <c r="K26" s="1">
+      <c r="K26" s="4">
         <v>22.468588322246859</v>
       </c>
-      <c r="L26" s="1">
+      <c r="L26" s="4">
         <v>8.5735402808573546</v>
       </c>
-      <c r="M26" s="1">
+      <c r="M26" s="4">
         <v>6.5779748706577976</v>
       </c>
-      <c r="N26" s="4">
+      <c r="N26" s="5">
         <v>1353</v>
       </c>
-      <c r="O26" s="1">
+      <c r="O26" s="4">
         <v>24.20943494038362</v>
       </c>
-      <c r="P26" s="1">
+      <c r="P26" s="4">
         <v>43.545878693623642</v>
       </c>
-      <c r="Q26" s="1">
+      <c r="Q26" s="4">
         <v>18.766200103680664</v>
       </c>
-      <c r="R26" s="1">
+      <c r="R26" s="4">
         <v>7.6205287713841372</v>
       </c>
-      <c r="S26" s="1">
+      <c r="S26" s="4">
         <v>5.8579574909279417</v>
       </c>
-      <c r="T26" s="4">
+      <c r="T26" s="5">
         <v>1929</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B27" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="4">
         <v>28.571428571428573</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="4">
         <v>67.142857142857139</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="4">
         <v>1.4285714285714286</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="4">
         <v>2.8571428571428572</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="4">
         <v>0</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="5">
         <v>140</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27" s="4">
         <v>16.822429906542055</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J27" s="4">
         <v>61.682242990654203</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K27" s="4">
         <v>8.5981308411214954</v>
       </c>
-      <c r="L27" s="1">
+      <c r="L27" s="4">
         <v>12.523364485981308</v>
       </c>
-      <c r="M27" s="1">
+      <c r="M27" s="4">
         <v>0.37383177570093457</v>
       </c>
-      <c r="N27" s="4">
+      <c r="N27" s="5">
         <v>535</v>
       </c>
-      <c r="O27" s="1">
+      <c r="O27" s="4">
         <v>19.25925925925926</v>
       </c>
-      <c r="P27" s="1">
+      <c r="P27" s="4">
         <v>62.814814814814817</v>
       </c>
-      <c r="Q27" s="1">
+      <c r="Q27" s="4">
         <v>7.1111111111111107</v>
       </c>
-      <c r="R27" s="1">
+      <c r="R27" s="4">
         <v>10.518518518518519</v>
       </c>
-      <c r="S27" s="1">
+      <c r="S27" s="4">
         <v>0.29629629629629628</v>
       </c>
-      <c r="T27" s="4">
+      <c r="T27" s="5">
         <v>675</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="4">
         <v>24.626865671641792</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="4">
         <v>19.402985074626866</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="4">
         <v>11.194029850746269</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="4">
         <v>37.313432835820898</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="4">
         <v>7.4626865671641793</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="5">
         <v>134</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I28" s="4">
         <v>25.654450261780106</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J28" s="4">
         <v>28.795811518324609</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K28" s="4">
         <v>8.9005235602094235</v>
       </c>
-      <c r="L28" s="1">
+      <c r="L28" s="4">
         <v>31.937172774869111</v>
       </c>
-      <c r="M28" s="1">
+      <c r="M28" s="4">
         <v>4.7120418848167542</v>
       </c>
-      <c r="N28" s="4">
+      <c r="N28" s="5">
         <v>191</v>
       </c>
-      <c r="O28" s="1">
+      <c r="O28" s="4">
         <v>25.23076923076923</v>
       </c>
-      <c r="P28" s="1">
+      <c r="P28" s="4">
         <v>24.923076923076923</v>
       </c>
-      <c r="Q28" s="1">
+      <c r="Q28" s="4">
         <v>9.8461538461538467</v>
       </c>
-      <c r="R28" s="1">
+      <c r="R28" s="4">
         <v>34.153846153846153</v>
       </c>
-      <c r="S28" s="1">
+      <c r="S28" s="4">
         <v>5.8461538461538458</v>
       </c>
-      <c r="T28" s="4">
+      <c r="T28" s="5">
         <v>325</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B29" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="4">
         <v>30.869565217391305</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="4">
         <v>25.217391304347824</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="4">
         <v>2.1739130434782608</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="4">
         <v>36.956521739130437</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="4">
         <v>4.7826086956521738</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="5">
         <v>230</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I29" s="4">
         <v>20.491803278688526</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J29" s="4">
         <v>31.147540983606557</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K29" s="4">
         <v>6.557377049180328</v>
       </c>
-      <c r="L29" s="1">
+      <c r="L29" s="4">
         <v>31.967213114754099</v>
       </c>
-      <c r="M29" s="1">
+      <c r="M29" s="4">
         <v>9.8360655737704921</v>
       </c>
-      <c r="N29" s="4">
+      <c r="N29" s="5">
         <v>122</v>
       </c>
-      <c r="O29" s="1">
+      <c r="O29" s="4">
         <v>27.272727272727273</v>
       </c>
-      <c r="P29" s="1">
+      <c r="P29" s="4">
         <v>27.272727272727273</v>
       </c>
-      <c r="Q29" s="1">
+      <c r="Q29" s="4">
         <v>3.6931818181818183</v>
       </c>
-      <c r="R29" s="1">
+      <c r="R29" s="4">
         <v>35.227272727272727</v>
       </c>
-      <c r="S29" s="1">
+      <c r="S29" s="4">
         <v>6.5340909090909092</v>
       </c>
-      <c r="T29" s="4">
+      <c r="T29" s="5">
         <v>352</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B30" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="4">
         <v>36.774193548387096</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="4">
         <v>23.225806451612904</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="4">
         <v>5.161290322580645</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="4">
         <v>31.612903225806452</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="4">
         <v>3.225806451612903</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="5">
         <v>155</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30" s="4">
         <v>34.913793103448278</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J30" s="4">
         <v>24.137931034482758</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K30" s="4">
         <v>3.0172413793103448</v>
       </c>
-      <c r="L30" s="1">
+      <c r="L30" s="4">
         <v>33.620689655172413</v>
       </c>
-      <c r="M30" s="1">
+      <c r="M30" s="4">
         <v>4.3103448275862073</v>
       </c>
-      <c r="N30" s="4">
+      <c r="N30" s="5">
         <v>232</v>
       </c>
-      <c r="O30" s="1">
+      <c r="O30" s="4">
         <v>35.65891472868217</v>
       </c>
-      <c r="P30" s="1">
+      <c r="P30" s="4">
         <v>23.772609819121445</v>
       </c>
-      <c r="Q30" s="1">
+      <c r="Q30" s="4">
         <v>3.8759689922480618</v>
       </c>
-      <c r="R30" s="1">
+      <c r="R30" s="4">
         <v>32.816537467700257</v>
       </c>
-      <c r="S30" s="1">
+      <c r="S30" s="4">
         <v>3.8759689922480618</v>
       </c>
-      <c r="T30" s="4">
+      <c r="T30" s="5">
         <v>387</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B31" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="4">
         <v>29.72972972972973</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="4">
         <v>22.522522522522522</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="4">
         <v>9.9099099099099099</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="4">
         <v>36.936936936936938</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31" s="4">
         <v>0.90090090090090091</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="5">
         <v>111</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I31" s="4">
         <v>28.676470588235293</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J31" s="4">
         <v>30.147058823529413</v>
       </c>
-      <c r="K31" s="1">
+      <c r="K31" s="4">
         <v>5.5147058823529411</v>
       </c>
-      <c r="L31" s="1">
+      <c r="L31" s="4">
         <v>30.147058823529413</v>
       </c>
-      <c r="M31" s="1">
+      <c r="M31" s="4">
         <v>5.5147058823529411</v>
       </c>
-      <c r="N31" s="4">
+      <c r="N31" s="5">
         <v>272</v>
       </c>
-      <c r="O31" s="1">
+      <c r="O31" s="4">
         <v>28.981723237597912</v>
       </c>
-      <c r="P31" s="1">
+      <c r="P31" s="4">
         <v>27.93733681462141</v>
       </c>
-      <c r="Q31" s="1">
+      <c r="Q31" s="4">
         <v>6.7885117493472587</v>
       </c>
-      <c r="R31" s="1">
+      <c r="R31" s="4">
         <v>32.114882506527415</v>
       </c>
-      <c r="S31" s="1">
+      <c r="S31" s="4">
         <v>4.1775456919060057</v>
       </c>
-      <c r="T31" s="4">
+      <c r="T31" s="5">
         <v>383</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B32" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="4">
         <v>26.666666666666668</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="4">
         <v>33.333333333333336</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="4">
         <v>0</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="4">
         <v>40</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32" s="4">
         <v>0</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H32" s="5">
         <v>15</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I32" s="4">
         <v>24.37673130193906</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J32" s="4">
         <v>33.795013850415515</v>
       </c>
-      <c r="K32" s="1">
+      <c r="K32" s="4">
         <v>12.465373961218837</v>
       </c>
-      <c r="L32" s="1">
+      <c r="L32" s="4">
         <v>25.761772853185594</v>
       </c>
-      <c r="M32" s="1">
+      <c r="M32" s="4">
         <v>3.601108033240997</v>
       </c>
-      <c r="N32" s="4">
+      <c r="N32" s="5">
         <v>361</v>
       </c>
-      <c r="O32" s="1">
+      <c r="O32" s="4">
         <v>24.468085106382979</v>
       </c>
-      <c r="P32" s="1">
+      <c r="P32" s="4">
         <v>33.776595744680854</v>
       </c>
-      <c r="Q32" s="1">
+      <c r="Q32" s="4">
         <v>11.968085106382979</v>
       </c>
-      <c r="R32" s="1">
+      <c r="R32" s="4">
         <v>26.329787234042552</v>
       </c>
-      <c r="S32" s="1">
+      <c r="S32" s="4">
         <v>3.4574468085106385</v>
       </c>
-      <c r="T32" s="4">
+      <c r="T32" s="5">
         <v>376</v>
       </c>
     </row>
